--- a/figures/demographics/table1_demographics.xlsx
+++ b/figures/demographics/table1_demographics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/Dropbox/github/22q_subcort_volumes/figures/demographics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/Library/CloudStorage/Dropbox/github/22q_subcort_volumes/figures/demographics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B0C2A2-92EC-074D-B131-ADA9EE0D14C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6DF166-0CF8-8646-86C8-5F3FDF811980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1660" yWindow="760" windowWidth="28040" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table1_demographics" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>n</t>
   </si>
@@ -52,12 +52,6 @@
     <t>Age, mean (SD)</t>
   </si>
   <si>
-    <t>Sex, n (%) Male</t>
-  </si>
-  <si>
-    <t>Handedness, n (%) Right</t>
-  </si>
-  <si>
     <t>Full Scale IQ, mean (SD)</t>
   </si>
   <si>
@@ -80,122 +74,120 @@
   </si>
   <si>
     <t>Days between visits, mean (SD)</t>
+  </si>
+  <si>
+    <t>17.83 (13.50)</t>
+  </si>
+  <si>
+    <t>14.89 (7.34)</t>
+  </si>
+  <si>
+    <t>15.52 (7.62)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 (46.9) </t>
+  </si>
+  <si>
+    <t>78.65 (12.74)</t>
+  </si>
+  <si>
+    <t>95.44 (17.84)</t>
+  </si>
+  <si>
+    <t>1.23 (1.88)</t>
+  </si>
+  <si>
+    <t>5.86 (6.52)</t>
+  </si>
+  <si>
+    <t>2.96 (3.25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (5.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 (0.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (8.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (25.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (13.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (6.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 (42.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (37.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (40.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (11.5) </t>
+  </si>
+  <si>
+    <t>1.62 (0.89)</t>
+  </si>
+  <si>
+    <t>1.99 (1.16)</t>
+  </si>
+  <si>
+    <t>1.73 (0.93)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (5.4) </t>
+  </si>
+  <si>
+    <t>Psychosis Risk Symptoms, n (%)</t>
+  </si>
+  <si>
+    <t>Sex, n (%) Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 (51.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">51 (53.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (45.9) </t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <i/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>p</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>-value</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">14 ( 37.8) </t>
-  </si>
-  <si>
-    <t>17.83 (13.50)</t>
-  </si>
-  <si>
-    <t>14.89 (7.34)</t>
-  </si>
-  <si>
-    <t>15.52 (7.62)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 ( 54.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">39 ( 48.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">36 ( 45.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">45 (46.9) </t>
-  </si>
-  <si>
-    <t>78.65 (12.74)</t>
-  </si>
-  <si>
-    <t>95.44 (17.84)</t>
-  </si>
-  <si>
-    <t>1.23 (1.88)</t>
-  </si>
-  <si>
-    <t>5.86 (6.52)</t>
-  </si>
-  <si>
-    <t>2.96 (3.25)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (5.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 (0.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (8.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (25.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (13.5) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (6.2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">41 (42.7) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (37.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (40.5) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (11.5) </t>
-  </si>
-  <si>
-    <t>1.62 (0.89)</t>
-  </si>
-  <si>
-    <t>1.99 (1.16)</t>
-  </si>
-  <si>
-    <t>1.73 (0.93)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (5.4) </t>
-  </si>
-  <si>
-    <t>Psychosis Risk Symptoms, n (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -331,13 +323,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <i/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -690,21 +700,30 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1062,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E3" sqref="E3:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1078,235 +1097,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>20</v>
+      <c r="E1" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>80</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>96</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>37</v>
       </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6">
         <v>0.24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="A4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="7">
         <v>0.75900000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.625</v>
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>2</v>
+      <c r="E7" s="6">
+        <v>2E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2E-3</v>
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2.1999999999999999E-2</v>
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>2</v>
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="1">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E13" s="8">
         <v>0.26</v>
       </c>
     </row>
